--- a/hutool-poi/src/test/resources/aaa.xlsx
+++ b/hutool-poi/src/test/resources/aaa.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15540" windowHeight="6675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +40,10 @@
   </si>
   <si>
     <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -392,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -431,6 +436,11 @@
       </c>
       <c r="C3">
         <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/hutool-poi/src/test/resources/aaa.xlsx
+++ b/hutool-poi/src/test/resources/aaa.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15540" windowHeight="6675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13760" windowHeight="7380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:N24"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,14 +48,26 @@
   </si>
   <si>
     <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,16 +82,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -87,12 +114,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -186,6 +319,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -221,6 +371,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -396,52 +563,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -451,25 +620,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hutool-poi/src/test/resources/aaa.xlsx
+++ b/hutool-poi/src/test/resources/aaa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13760" windowHeight="7380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14530" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -226,6 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -564,15 +569,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -582,8 +587,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -593,8 +601,11 @@
       <c r="C2" s="5">
         <v>11</v>
       </c>
+      <c r="D2">
+        <v>41.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -604,13 +615,19 @@
       <c r="C3" s="8">
         <v>22</v>
       </c>
+      <c r="D3">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="11"/>
+      <c r="D4">
+        <v>43.22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -623,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/hutool-poi/src/test/resources/aaa.xlsx
+++ b/hutool-poi/src/test/resources/aaa.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117DF81F-4C04-4CDC-9BC3-2C40A7386847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14530" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N24"/>
 </workbook>
 </file>
 
@@ -572,12 +572,12 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -591,7 +591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -605,7 +605,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -615,11 +615,8 @@
       <c r="C3" s="8">
         <v>22</v>
       </c>
-      <c r="D3">
-        <v>42</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>7</v>
@@ -644,9 +641,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -670,7 +667,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hutool-poi/src/test/resources/aaa.xlsx
+++ b/hutool-poi/src/test/resources/aaa.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117DF81F-4C04-4CDC-9BC3-2C40A7386847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1327A8C-2CEC-42B0-A8C4-49C104D61960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="12" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -663,12 +663,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4">
+        <v>43.22</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hutool-poi/src/test/resources/aaa.xlsx
+++ b/hutool-poi/src/test/resources/aaa.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1327A8C-2CEC-42B0-A8C4-49C104D61960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DDEAC3-B6E5-0C40-8D4F-DCB9F36BDAEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21800" windowHeight="13100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,13 +75,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -90,7 +90,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -233,7 +233,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -571,13 +571,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+    <sheetView zoomScale="193" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -591,7 +591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -605,7 +605,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -616,7 +616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>7</v>
@@ -641,9 +641,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -665,13 +665,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="226" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -685,7 +685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -699,7 +699,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -709,8 +709,11 @@
       <c r="C3" s="8">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>6</v>
